--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210"/>
+    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Motos" sheetId="2" r:id="rId1"/>
+    <sheet name="Capacetes e Óculos" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
   <si>
     <t>Código</t>
   </si>
@@ -140,9 +141,6 @@
     <t>Peso</t>
   </si>
   <si>
-    <t>Gênero</t>
-  </si>
-  <si>
     <t>883 Cc</t>
   </si>
   <si>
@@ -243,17 +241,239 @@
   </si>
   <si>
     <t>Dark Custom</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Supermoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husqvarna </t>
+  </si>
+  <si>
+    <t>701 Supermoto</t>
+  </si>
+  <si>
+    <t>Enduro</t>
+  </si>
+  <si>
+    <t>692,7 Cc</t>
+  </si>
+  <si>
+    <t>145 Kg</t>
+  </si>
+  <si>
+    <t>701 Enduro</t>
+  </si>
+  <si>
+    <t>449 Cc</t>
+  </si>
+  <si>
+    <t>184 Kg</t>
+  </si>
+  <si>
+    <t>YFZ450R</t>
+  </si>
+  <si>
+    <t>CRF450L</t>
+  </si>
+  <si>
+    <t>On/Off Road</t>
+  </si>
+  <si>
+    <t>131 Kg</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>120 Kg</t>
+  </si>
+  <si>
+    <t>88 Cc</t>
+  </si>
+  <si>
+    <t>YFM700R</t>
+  </si>
+  <si>
+    <t>YFM90R</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor </t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>X-Lite X 803 Ultra carbon D. Petrucci - Carbon 20</t>
+  </si>
+  <si>
+    <t>AIROH AVIATOR 2.3 SIX DAYS</t>
+  </si>
+  <si>
+    <t>LEVO FLOW C/ Pinlock Caberg</t>
+  </si>
+  <si>
+    <t>Nolan N70-2X Grandes Alpes</t>
+  </si>
+  <si>
+    <t>GHOST CARBON CABERG</t>
+  </si>
+  <si>
+    <t>OAKLEY AirBrak MX Whiteoutl Prizm Saphir</t>
+  </si>
+  <si>
+    <t>SHAPE Amarelo/Azul Escuro SPRINT</t>
+  </si>
+  <si>
+    <t>SHAPE Cinza/Light Azul SPRINT</t>
+  </si>
+  <si>
+    <t>S, M, L, XL</t>
+  </si>
+  <si>
+    <t>L, M, XS, S, XL</t>
+  </si>
+  <si>
+    <t>M, S, L</t>
+  </si>
+  <si>
+    <t>M, L, S, XL</t>
+  </si>
+  <si>
+    <t>XXS ao XXXL</t>
+  </si>
+  <si>
+    <t>M, S, L, XL, XS</t>
+  </si>
+  <si>
+    <t>Único</t>
+  </si>
+  <si>
+    <t>Cinza e Light Azul</t>
+  </si>
+  <si>
+    <t>Amarelo e Azul Escuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarelo </t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>Branco Mate</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
+    <t>Azul e Laranja</t>
+  </si>
+  <si>
+    <t>Vermelho</t>
+  </si>
+  <si>
+    <t>Multicolor</t>
+  </si>
+  <si>
+    <t>Azul, Branco e Vermelho</t>
+  </si>
+  <si>
+    <t>Amarelo</t>
+  </si>
+  <si>
+    <t>Preto e Amarelo Fluo</t>
+  </si>
+  <si>
+    <t>Carbono</t>
+  </si>
+  <si>
+    <t>Branco, Anthracite e Amarelo Fluo</t>
+  </si>
+  <si>
+    <t>Capacete Offroad</t>
+  </si>
+  <si>
+    <t>Capacete Integral</t>
+  </si>
+  <si>
+    <t>Capacete Modular</t>
+  </si>
+  <si>
+    <t>Capacete Aberto</t>
+  </si>
+  <si>
+    <t>Óculos</t>
+  </si>
+  <si>
+    <t>BELL Moto-9 Flex Fasthouse DID</t>
+  </si>
+  <si>
+    <t>ST 701 SAFETY FULL CARBON AIROH</t>
+  </si>
+  <si>
+    <t>Nolan N53 Whoop Led 49</t>
+  </si>
+  <si>
+    <t>XTRACE SPARK Caberg</t>
+  </si>
+  <si>
+    <t>OAKLEY AirBrake MX Prizm Sapphire</t>
+  </si>
+  <si>
+    <t>OAKLEY FL MX Matt Speed Prizm TorchI</t>
+  </si>
+  <si>
+    <t>OAKLEY AirBrake MX Matt Speed</t>
+  </si>
+  <si>
+    <t>OAKLEY FL MX Matt Speed Prizm Bronze</t>
+  </si>
+  <si>
+    <t>FIRST RACING Chromatik c/ Lente espelhada</t>
+  </si>
+  <si>
+    <t>FIRST RACING Chromatik</t>
+  </si>
+  <si>
+    <t>OSFM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,16 +495,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -292,60 +532,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
@@ -364,8 +664,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:H13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:H19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H19"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Código" dataDxfId="7"/>
     <tableColumn id="2" name="Marca" dataDxfId="6"/>
@@ -373,8 +673,8 @@
     <tableColumn id="4" name="Ano" dataDxfId="4"/>
     <tableColumn id="5" name="Cilindrada" dataDxfId="3" dataCellStyle="Moeda"/>
     <tableColumn id="6" name="Peso" dataDxfId="2"/>
-    <tableColumn id="7" name="Gênero" dataDxfId="1"/>
-    <tableColumn id="8" name="Preço" dataDxfId="0"/>
+    <tableColumn id="7" name="Género" dataDxfId="1"/>
+    <tableColumn id="8" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -667,18 +967,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -701,299 +1005,479 @@
         <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>2019</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="6">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="G3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="7">
+        <v>25204.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="7">
+        <v>22745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="7">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="7">
+        <v>18874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
         <v>2019</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="7">
+        <v>16295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="7">
+        <v>13895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2019</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4948.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="7">
+        <v>14678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="7">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="7">
+        <v>11195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4">
         <v>2019</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="E15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4">
         <v>2019</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11012.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="4">
         <v>2019</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11224.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="4">
         <v>2019</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="E18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="4">
         <v>2019</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="1"/>
+      <c r="H19" s="7">
+        <v>3190</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,4 +1486,405 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="7">
+        <v>711.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="7">
+        <v>689.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="7">
+        <v>649.92999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7">
+        <v>519.66999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="7">
+        <v>429.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="7">
+        <v>389.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7">
+        <v>339.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="7">
+        <v>269.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="7">
+        <v>219.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="7">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="7">
+        <v>35.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7">
+        <v>35.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>